--- a/testdata/skeleton.xlsx
+++ b/testdata/skeleton.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robza\go\src\github.com\pinkgopher\xls2ajf\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robza\go\src\bitbucket.org\gnucoop\xls2ajf\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>list_name</t>
-  </si>
-  <si>
     <t>listname1</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>type2</t>
+  </si>
+  <si>
+    <t>list name</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -409,24 +409,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -460,35 +460,35 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/skeleton.xlsx
+++ b/testdata/skeleton.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>type</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>list name</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -388,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +412,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -417,8 +426,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -427,6 +439,9 @@
       </c>
       <c r="C3" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -438,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
